--- a/Documentation/BMS_2021_BOM.xlsx
+++ b/Documentation/BMS_2021_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Documents\GitHub\BMS_Hardware\Documentation\BOM Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Documents\GitHub\BMS_Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9DF7D6-2435-46CC-930E-49DEF0CC9BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C17865-9A88-4A44-A0E4-239D13323BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8655" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="224">
   <si>
     <t>Id</t>
   </si>
@@ -658,10 +658,40 @@
     <t>https://powerwerx.com/anderson-powerpole-colored-housings</t>
   </si>
   <si>
-    <t>507-1743-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/bel-fuse-inc/0ZCF0075AF2C/4156294?s=N4IgTCBcDaIKwAYDsBaAjEgLAZnSgcgCIgC6AvkA</t>
+    <t>https://www.digikey.com/en/products/detail/littelfuse-inc/2920L075-60MR/2024102</t>
+  </si>
+  <si>
+    <t>F5633TR-ND</t>
+  </si>
+  <si>
+    <t>TempSense</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/MCP9700A-E-TO/1212508?s=N4IgTCBcDaILIGEAKBOA7ABgwQQLQFEQBdAXyA</t>
+  </si>
+  <si>
+    <t>MCP9700A-E/TO-ND</t>
+  </si>
+  <si>
+    <t>Temp Sensor</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCD </t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/16398</t>
+  </si>
+  <si>
+    <t>LCD-14074</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
   </si>
 </sst>
 </file>
@@ -880,7 +910,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1020,6 +1050,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1029,14 +1068,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1357,10 +1390,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1369,14 +1402,14 @@
     <col min="2" max="2" width="30" style="10" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="36"/>
+    <col min="5" max="5" width="5.609375" style="36" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="40"/>
+    <col min="8" max="8" width="5.609375" style="40" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" style="2"/>
     <col min="10" max="10" width="14.44140625" style="10"/>
     <col min="11" max="11" width="14.44140625" style="9"/>
-    <col min="12" max="12" width="14.44140625" style="40"/>
+    <col min="12" max="12" width="5.609375" style="40" customWidth="1"/>
     <col min="13" max="13" width="14.44140625" style="2"/>
     <col min="14" max="14" width="47.94140625" style="45" customWidth="1"/>
     <col min="15" max="15" width="23.88671875" style="10" customWidth="1"/>
@@ -2095,7 +2128,7 @@
         <v>124</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>147</v>
@@ -2104,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="N21" s="43" t="s">
-        <v>213</v>
+        <v>0.69</v>
+      </c>
+      <c r="N21" s="53" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2230,7 +2263,7 @@
       <c r="F25" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -2286,13 +2319,13 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="52" t="s">
         <v>88</v>
       </c>
       <c r="F27" s="15" t="s">
@@ -2318,9 +2351,9 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
       <c r="F28" s="15" t="s">
         <v>207</v>
       </c>
@@ -2336,7 +2369,7 @@
       <c r="K28" s="9">
         <v>0.37</v>
       </c>
-      <c r="N28" s="50" t="s">
+      <c r="N28" s="47" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2344,9 +2377,9 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
       <c r="F29" s="10" t="s">
         <v>206</v>
       </c>
@@ -2706,8 +2739,72 @@
       </c>
       <c r="L39" s="41"/>
       <c r="M39" s="20"/>
-      <c r="N39" s="51" t="s">
+      <c r="N39" s="48" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" s="14">
+        <v>1</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="N40" s="53" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J41" s="14">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9">
+        <v>24.95</v>
+      </c>
+      <c r="N41" s="45" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2751,10 +2848,11 @@
     <hyperlink ref="N32" r:id="rId32" xr:uid="{88589336-DC4A-4D6D-9DE7-9AD94FFB57CC}"/>
     <hyperlink ref="N29" r:id="rId33" xr:uid="{377C28EE-BAAF-496B-9D17-D616A4D607CD}"/>
     <hyperlink ref="N28" r:id="rId34" xr:uid="{B14ADFC8-5D74-4BE8-ADE1-AEE0F18ACD07}"/>
-    <hyperlink ref="N21" r:id="rId35" xr:uid="{C5698576-DB4F-4370-B1DF-1D051B4334C7}"/>
+    <hyperlink ref="N21" r:id="rId35" xr:uid="{5FEA6FE1-09C7-461E-B097-24D512E2146E}"/>
+    <hyperlink ref="N40" r:id="rId36" xr:uid="{E8F96D87-A2BE-4BDA-9510-9BAA9BC45F77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId36"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId37"/>
   <ignoredErrors>
     <ignoredError sqref="G29" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/Documentation/BMS_2021_BOM.xlsx
+++ b/Documentation/BMS_2021_BOM.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Documents\GitHub\BMS_Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C17865-9A88-4A44-A0E4-239D13323BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F673F57-CE45-4DCD-9C7E-1FFA5A42C6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8655" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MRDT BOM Template.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1059,6 +1060,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1067,9 +1071,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1392,8 +1393,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2139,7 +2140,7 @@
       <c r="K21" s="9">
         <v>0.69</v>
       </c>
-      <c r="N21" s="53" t="s">
+      <c r="N21" s="50" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2319,13 +2320,13 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="53" t="s">
         <v>88</v>
       </c>
       <c r="F27" s="15" t="s">
@@ -2351,9 +2352,9 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
       <c r="F28" s="15" t="s">
         <v>207</v>
       </c>
@@ -2377,9 +2378,9 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
       <c r="F29" s="10" t="s">
         <v>206</v>
       </c>
@@ -2771,7 +2772,7 @@
       <c r="K40" s="9">
         <v>0.31</v>
       </c>
-      <c r="N40" s="53" t="s">
+      <c r="N40" s="50" t="s">
         <v>216</v>
       </c>
     </row>
